--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Precision Landing Correcting Landing Position .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,16 +827,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,91 +1307,91 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,20 +1466,50 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>22</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,16 +827,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,91 +1307,91 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1480,36 +1480,6 @@
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>22</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
